--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pandaeye/Desktop/Vite-React-Extension/vite-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1ABB49-B420-F04E-A0B3-C8D1CED9F2B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325EAFF0-444E-8342-A046-9E63AD6E5CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19360" xr2:uid="{E0443403-F940-BB4B-B977-9D73DED7F671}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,6 +74,10 @@
   </si>
   <si>
     <t>Output type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EM06二期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -441,7 +445,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -493,6 +497,9 @@
       <c r="A6" t="s">
         <v>6</v>
       </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
